--- a/Momoca/Docs/product backlog.xlsx
+++ b/Momoca/Docs/product backlog.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22650" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Criar Deskboard</t>
   </si>
   <si>
-    <t>Criar metodo para puxar dados do banco de dados para o sistema</t>
-  </si>
-  <si>
     <t>Estimativa/Hrs</t>
   </si>
   <si>
@@ -97,13 +95,22 @@
   </si>
   <si>
     <t>Juliano</t>
+  </si>
+  <si>
+    <t>Criar classe para puxar dados do banco de dados para o sistema</t>
+  </si>
+  <si>
+    <t>Horas Reais</t>
+  </si>
+  <si>
+    <t>Criar classe Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +153,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -426,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -467,6 +489,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,9 +815,10 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -799,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
@@ -807,8 +835,11 @@
       <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -817,8 +848,9 @@
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -832,11 +864,12 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -851,10 +884,11 @@
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -869,16 +903,17 @@
         <v>6</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>4</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="33">
         <v>2</v>
@@ -886,255 +921,298 @@
       <c r="E6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="F6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="28" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="28" t="s">
-        <v>14</v>
+      <c r="C13" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="F15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>11</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>12</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="35"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
